--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="step" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>finger_posY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发红包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -733,14 +737,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -786,6 +792,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="step" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -188,6 +188,86 @@
   </si>
   <si>
     <t>发红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面对面收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何面对面使用微信收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用百度地图导航目的地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何发送微信红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用微信转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否开发完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../res/icon/get.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../res/icon/to.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../res/icon/map.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../res/icon/red.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,20 +817,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,8 +849,20 @@
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,8 +875,20 @@
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -788,23 +898,94 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="11480" yWindow="0" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="step" sheetId="1" r:id="rId1"/>
     <sheet name="group" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -268,13 +271,25 @@
   </si>
   <si>
     <t>../res/icon/red.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开微信，点击要发送红包的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发红包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,7 +333,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -411,7 +426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -588,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,25 +611,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="7.75" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="67.125" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="67.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -672,7 +687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -701,7 +716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -730,7 +745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -759,7 +774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -788,7 +803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -806,12 +821,42 @@
       </c>
       <c r="F7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>2001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -819,24 +864,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,7 +933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
@@ -914,7 +959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -937,7 +982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -960,7 +1005,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -986,6 +1031,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="0" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="2500" yWindow="0" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="step" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -278,11 +278,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>发红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击下方的加号，弹出一个功能菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击红包按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出发红包的界面，输入金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>打开微信，点击要发送红包的对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发红包</t>
+    <t>打开微信，点击要要转账的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击转账按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出转账界面，输入转账金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开微信点击我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击头像区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再点一次头像区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点右上方的三个点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击从手机相册选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一张图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整图片尺寸，用两只手指可以放大和缩小，选择好后点完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图导航</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +371,22 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -323,8 +407,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -332,7 +422,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -833,8 +929,11 @@
       <c r="C8">
         <v>2</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -842,10 +941,252 @@
         <v>2001</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>2002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>2003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>3000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>3001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>3002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>3003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>4000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>4001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>4002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>4003</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>4004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>4005</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>4006</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>5000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>5001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>5002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>5003</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>5004</v>
+      </c>
+      <c r="B28" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="0" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="2505" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="step" sheetId="1" r:id="rId1"/>
@@ -12,18 +12,18 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -107,18 +107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是就是款界面了。别人可以通过扫描这个二维码完成支付，注意收款成功后会有提示信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>步骤合集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000;1001;1002;1003;1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id_group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,22 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../res/1000.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../res/1001.jpg</t>
-  </si>
-  <si>
-    <t>../res/1002.jpg</t>
-  </si>
-  <si>
-    <t>../res/1003.jpg</t>
-  </si>
-  <si>
-    <t>../res/1004.jpg</t>
-  </si>
-  <si>
     <t>手指图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,13 +327,216 @@
   </si>
   <si>
     <t>地图导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>换头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>修改微信头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000;2001;2002;2003;2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>在左面找到百度地图软件，点击进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入目的地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击进入目的地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击到这去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择交通工具，假设选择步行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击更我走，地图将自动导航，语音提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../res/getMoney/1000.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../res/getMoney/1001.jpg</t>
+  </si>
+  <si>
+    <t>../res/getMoney/1002.jpg</t>
+  </si>
+  <si>
+    <t>../res/getMoney/1003.jpg</t>
+  </si>
+  <si>
+    <t>../res/getMoney/1004.jpg</t>
+  </si>
+  <si>
+    <t>../res/getMoney/1005.jpg</t>
+  </si>
+  <si>
+    <t>../res/getMoney/1006.jpg</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>../res/repakage/1000.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../res/repakage/1001.jpg</t>
+  </si>
+  <si>
+    <t>../res/repakage/1002.jpg</t>
+  </si>
+  <si>
+    <t>../res/repakage/1003.jpg</t>
+  </si>
+  <si>
+    <t>../res/repakage/1004.jpg</t>
+  </si>
+  <si>
+    <t>../res/transfer/1000.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../res/transfer/1001.jpg</t>
+  </si>
+  <si>
+    <t>../res/transfer/1002.jpg</t>
+  </si>
+  <si>
+    <t>../res/transfer/1003.jpg</t>
+  </si>
+  <si>
+    <t>../res/transfer/1004.jpg</t>
+  </si>
+  <si>
+    <t>../res/transfer/1005.jpg</t>
+  </si>
+  <si>
+    <t>../res/transfer/1006.jpg</t>
+  </si>
+  <si>
+    <t>../res/setIcon/1000.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../res/setIcon/1001.jpg</t>
+  </si>
+  <si>
+    <t>../res/setIcon/1002.jpg</t>
+  </si>
+  <si>
+    <t>../res/setIcon/1003.jpg</t>
+  </si>
+  <si>
+    <t>../res/setIcon/1004.jpg</t>
+  </si>
+  <si>
+    <t>../res/setIcon/1005.jpg</t>
+  </si>
+  <si>
+    <t>../res/setIcon/1006.jpg</t>
+  </si>
+  <si>
+    <t>1000;1001;1002;1003;1004;1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000;3001;3002;3003;3004;3005;3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000;5001;5002;5003;5004;5005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../res/map/1000.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../res/map/1001.jpg</t>
+  </si>
+  <si>
+    <t>../res/map/1002.jpg</t>
+  </si>
+  <si>
+    <t>../res/map/1003.jpg</t>
+  </si>
+  <si>
+    <t>../res/map/1004.jpg</t>
+  </si>
+  <si>
+    <t>../res/map/1005.jpg</t>
+  </si>
+  <si>
+    <t>4000;4001;4002;4003;4004;4005;4006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击转账按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置金额，输入你要收多少钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击下一步按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该界面的二维码，让对方用微信扫码付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,20 +595,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,7 +881,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -707,486 +889,1008 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="67.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="67.125" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>3001</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>3002</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>3003</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>3004</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>3005</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>3006</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="2">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4001</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>4002</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>1001</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>4003</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>4004</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>4005</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>4006</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>5001</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>5002</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="2">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>1002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>1003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>1004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>2000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>2001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>2002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>2003</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="E11">
+      <c r="F31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>5003</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="2">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>2004</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="E12">
+      <c r="F32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>5004</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="2">
         <v>4</v>
       </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>3000</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>3001</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>3002</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>3003</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>4000</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>4001</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>4002</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>4003</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>4004</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>4005</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>4006</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>5000</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>5001</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>5002</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>5003</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>5004</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
+      <c r="F33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>5005</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1203,26 +1907,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,22 +1937,22 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,24 +1963,24 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1000</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1285,94 +1989,129 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>1001</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>1003</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>60</v>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
